--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H2">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N2">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O2">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P2">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q2">
-        <v>71.98607101383611</v>
+        <v>1404.628748408284</v>
       </c>
       <c r="R2">
-        <v>647.8746391245249</v>
+        <v>12641.65873567456</v>
       </c>
       <c r="S2">
-        <v>0.000975585673954762</v>
+        <v>0.01307070795486429</v>
       </c>
       <c r="T2">
-        <v>0.0009755856739547623</v>
+        <v>0.01307070795486429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H3">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I3">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J3">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.726477</v>
       </c>
       <c r="O3">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P3">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q3">
-        <v>102.1481348046739</v>
+        <v>409.8630476342788</v>
       </c>
       <c r="R3">
-        <v>919.3332132420649</v>
+        <v>3688.767428708509</v>
       </c>
       <c r="S3">
-        <v>0.001384354716587957</v>
+        <v>0.003813961662958296</v>
       </c>
       <c r="T3">
-        <v>0.001384354716587958</v>
+        <v>0.003813961662958297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H4">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I4">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J4">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N4">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O4">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P4">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q4">
-        <v>735.6133484914566</v>
+        <v>4404.428184519207</v>
       </c>
       <c r="R4">
-        <v>6620.520136423109</v>
+        <v>39639.85366067287</v>
       </c>
       <c r="S4">
-        <v>0.009969343155569915</v>
+        <v>0.04098520308178263</v>
       </c>
       <c r="T4">
-        <v>0.009969343155569917</v>
+        <v>0.04098520308178264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H5">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I5">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J5">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N5">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O5">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P5">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q5">
-        <v>85.80814560423777</v>
+        <v>378.7376899189294</v>
       </c>
       <c r="R5">
-        <v>772.2733104381399</v>
+        <v>3408.639209270365</v>
       </c>
       <c r="S5">
-        <v>0.001162908273519033</v>
+        <v>0.003524326084056019</v>
       </c>
       <c r="T5">
-        <v>0.001162908273519033</v>
+        <v>0.00352432608405602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H6">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I6">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J6">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N6">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O6">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P6">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q6">
-        <v>1067.718591139272</v>
+        <v>5525.227222115031</v>
       </c>
       <c r="R6">
-        <v>9609.467320253445</v>
+        <v>49727.04499903527</v>
       </c>
       <c r="S6">
-        <v>0.01447017383585811</v>
+        <v>0.05141474676947153</v>
       </c>
       <c r="T6">
-        <v>0.01447017383585811</v>
+        <v>0.05141474676947153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H7">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I7">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J7">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N7">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O7">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P7">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q7">
-        <v>698.1059688793189</v>
+        <v>1510.407167052078</v>
       </c>
       <c r="R7">
-        <v>6282.953719913869</v>
+        <v>13593.6645034687</v>
       </c>
       <c r="S7">
-        <v>0.009461027286932615</v>
+        <v>0.01405502414488044</v>
       </c>
       <c r="T7">
-        <v>0.009461027286932619</v>
+        <v>0.01405502414488044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>341.735291</v>
       </c>
       <c r="I8">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J8">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N8">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O8">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P8">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q8">
-        <v>715.1663403873107</v>
+        <v>3477.857826742132</v>
       </c>
       <c r="R8">
-        <v>6436.497063485795</v>
+        <v>31300.72044067919</v>
       </c>
       <c r="S8">
-        <v>0.009692236655649845</v>
+        <v>0.03236304540498562</v>
       </c>
       <c r="T8">
-        <v>0.009692236655649849</v>
+        <v>0.03236304540498561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>341.735291</v>
       </c>
       <c r="I9">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J9">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>26.726477</v>
       </c>
       <c r="O9">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P9">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q9">
-        <v>1014.820043888868</v>
+        <v>1014.820043888867</v>
       </c>
       <c r="R9">
-        <v>9133.380394999807</v>
+        <v>9133.380394999806</v>
       </c>
       <c r="S9">
-        <v>0.0137532703551751</v>
+        <v>0.009443361055684711</v>
       </c>
       <c r="T9">
-        <v>0.01375327035517511</v>
+        <v>0.009443361055684711</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>341.735291</v>
       </c>
       <c r="I10">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J10">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N10">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O10">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P10">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q10">
-        <v>7308.162523268896</v>
+        <v>10905.35492115763</v>
       </c>
       <c r="R10">
-        <v>65773.46270942006</v>
+        <v>98148.19429041867</v>
       </c>
       <c r="S10">
-        <v>0.09904330879877922</v>
+        <v>0.1014792766274503</v>
       </c>
       <c r="T10">
-        <v>0.09904330879877923</v>
+        <v>0.1014792766274503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>341.735291</v>
       </c>
       <c r="I11">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J11">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N11">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O11">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P11">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q11">
-        <v>852.4857184580769</v>
+        <v>937.7537236507659</v>
       </c>
       <c r="R11">
-        <v>7672.371466122691</v>
+        <v>8439.783512856893</v>
       </c>
       <c r="S11">
-        <v>0.01155324693326964</v>
+        <v>0.008726223971505173</v>
       </c>
       <c r="T11">
-        <v>0.01155324693326964</v>
+        <v>0.008726223971505173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>341.735291</v>
       </c>
       <c r="I12">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J12">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N12">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O12">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P12">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q12">
-        <v>10607.55763766855</v>
+        <v>13680.45098089929</v>
       </c>
       <c r="R12">
-        <v>95468.01873901697</v>
+        <v>123124.0588280936</v>
       </c>
       <c r="S12">
-        <v>0.1437581065504993</v>
+        <v>0.1273028048619973</v>
       </c>
       <c r="T12">
-        <v>0.1437581065504993</v>
+        <v>0.1273028048619973</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>341.735291</v>
       </c>
       <c r="I13">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J13">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N13">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O13">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P13">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q13">
-        <v>6935.534665727199</v>
+        <v>3739.764968823345</v>
       </c>
       <c r="R13">
-        <v>62419.8119915448</v>
+        <v>33657.8847194101</v>
       </c>
       <c r="S13">
-        <v>0.09399329850631219</v>
+        <v>0.03480021022118061</v>
       </c>
       <c r="T13">
-        <v>0.09399329850631222</v>
+        <v>0.03480021022118061</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H14">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I14">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J14">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N14">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O14">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P14">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q14">
-        <v>387.68034036023</v>
+        <v>1886.836706796564</v>
       </c>
       <c r="R14">
-        <v>3489.12306324207</v>
+        <v>16981.53036116908</v>
       </c>
       <c r="S14">
-        <v>0.005254007904621597</v>
+        <v>0.01755787184407476</v>
       </c>
       <c r="T14">
-        <v>0.005254007904621598</v>
+        <v>0.01755787184407477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H15">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I15">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J15">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.726477</v>
       </c>
       <c r="O15">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P15">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q15">
-        <v>550.117864616158</v>
+        <v>550.568713556671</v>
       </c>
       <c r="R15">
-        <v>4951.060781545421</v>
+        <v>4955.118422010039</v>
       </c>
       <c r="S15">
-        <v>0.007455429920643328</v>
+        <v>0.005123291739642524</v>
       </c>
       <c r="T15">
-        <v>0.007455429920643328</v>
+        <v>0.005123291739642525</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H16">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I16">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J16">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N16">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O16">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P16">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q16">
-        <v>3961.639096289652</v>
+        <v>5916.464959454604</v>
       </c>
       <c r="R16">
-        <v>35654.75186660686</v>
+        <v>53248.18463509145</v>
       </c>
       <c r="S16">
-        <v>0.05368980822660006</v>
+        <v>0.05505539146756869</v>
       </c>
       <c r="T16">
-        <v>0.05368980822660006</v>
+        <v>0.0550553914675687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H17">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I17">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J17">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N17">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O17">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P17">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q17">
-        <v>462.118999203848</v>
+        <v>508.7580447119349</v>
       </c>
       <c r="R17">
-        <v>4159.070992834631</v>
+        <v>4578.822402407414</v>
       </c>
       <c r="S17">
-        <v>0.00626283208593136</v>
+        <v>0.00473422449145586</v>
       </c>
       <c r="T17">
-        <v>0.00626283208593136</v>
+        <v>0.004734224491455861</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H18">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I18">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J18">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N18">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O18">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P18">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q18">
-        <v>5750.188904493174</v>
+        <v>7422.033436160281</v>
       </c>
       <c r="R18">
-        <v>51751.70014043856</v>
+        <v>66798.30092544253</v>
       </c>
       <c r="S18">
-        <v>0.07792899152224789</v>
+        <v>0.06906538940287348</v>
       </c>
       <c r="T18">
-        <v>0.07792899152224789</v>
+        <v>0.06906538940287349</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H19">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I19">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J19">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N19">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O19">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P19">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q19">
-        <v>3759.643439501284</v>
+        <v>2028.9287744053</v>
       </c>
       <c r="R19">
-        <v>33836.79095551155</v>
+        <v>18260.3589696477</v>
       </c>
       <c r="S19">
-        <v>0.05095227767119668</v>
+        <v>0.01888010301762951</v>
       </c>
       <c r="T19">
-        <v>0.05095227767119669</v>
+        <v>0.01888010301762951</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H20">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I20">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J20">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N20">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O20">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P20">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q20">
-        <v>98.63629763708501</v>
+        <v>329.7498065610681</v>
       </c>
       <c r="R20">
-        <v>887.7266787337651</v>
+        <v>2967.748259049612</v>
       </c>
       <c r="S20">
-        <v>0.001336760814299512</v>
+        <v>0.003068471597649449</v>
       </c>
       <c r="T20">
-        <v>0.001336760814299512</v>
+        <v>0.003068471597649449</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H21">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I21">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J21">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.726477</v>
       </c>
       <c r="O21">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P21">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q21">
-        <v>139.964769375041</v>
+        <v>96.21920441759924</v>
       </c>
       <c r="R21">
-        <v>1259.682924375369</v>
+        <v>865.9728397583931</v>
       </c>
       <c r="S21">
-        <v>0.00189686173918878</v>
+        <v>0.0008953633634631157</v>
       </c>
       <c r="T21">
-        <v>0.00189686173918878</v>
+        <v>0.0008953633634631157</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H22">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I22">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J22">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N22">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O22">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P22">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q22">
-        <v>1007.947456580454</v>
+        <v>1033.9809316185</v>
       </c>
       <c r="R22">
-        <v>9071.527109224086</v>
+        <v>9305.828384566499</v>
       </c>
       <c r="S22">
-        <v>0.01366013014587263</v>
+        <v>0.009621661811634475</v>
       </c>
       <c r="T22">
-        <v>0.01366013014587263</v>
+        <v>0.009621661811634475</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H23">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I23">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J23">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N23">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O23">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P23">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q23">
-        <v>117.575493012796</v>
+        <v>88.91223401890056</v>
       </c>
       <c r="R23">
-        <v>1058.179437115164</v>
+        <v>800.210106170105</v>
       </c>
       <c r="S23">
-        <v>0.001593432798539666</v>
+        <v>0.000827368687841919</v>
       </c>
       <c r="T23">
-        <v>0.001593432798539666</v>
+        <v>0.000827368687841919</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H24">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I24">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J24">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N24">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O24">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P24">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q24">
-        <v>1463.002595710773</v>
+        <v>1297.099044685645</v>
       </c>
       <c r="R24">
-        <v>13167.02336139696</v>
+        <v>11673.89140217081</v>
       </c>
       <c r="S24">
-        <v>0.01982722981310827</v>
+        <v>0.01207009526241841</v>
       </c>
       <c r="T24">
-        <v>0.01982722981310828</v>
+        <v>0.01207009526241841</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H25">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I25">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J25">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N25">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O25">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P25">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q25">
-        <v>956.554332787118</v>
+        <v>354.5822849833223</v>
       </c>
       <c r="R25">
-        <v>8608.988995084062</v>
+        <v>3191.240564849901</v>
       </c>
       <c r="S25">
-        <v>0.01296362880045366</v>
+        <v>0.003299549078884661</v>
       </c>
       <c r="T25">
-        <v>0.01296362880045366</v>
+        <v>0.003299549078884661</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H26">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I26">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J26">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N26">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O26">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P26">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q26">
-        <v>252.2909404991244</v>
+        <v>1163.011326763692</v>
       </c>
       <c r="R26">
-        <v>2270.61846449212</v>
+        <v>10467.10194087323</v>
       </c>
       <c r="S26">
-        <v>0.00341915350779752</v>
+        <v>0.0108223481952463</v>
       </c>
       <c r="T26">
-        <v>0.003419153507797521</v>
+        <v>0.0108223481952463</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H27">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I27">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J27">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.726477</v>
       </c>
       <c r="O27">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P27">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q27">
-        <v>358.0004942226836</v>
+        <v>339.3603949518463</v>
       </c>
       <c r="R27">
-        <v>3222.004448004152</v>
+        <v>3054.243554566617</v>
       </c>
       <c r="S27">
-        <v>0.004851774079533316</v>
+        <v>0.003157902484118646</v>
       </c>
       <c r="T27">
-        <v>0.004851774079533317</v>
+        <v>0.003157902484118646</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H28">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I28">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J28">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N28">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O28">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P28">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q28">
-        <v>2578.117973669498</v>
+        <v>3646.799819751484</v>
       </c>
       <c r="R28">
-        <v>23203.06176302549</v>
+        <v>32821.19837776336</v>
       </c>
       <c r="S28">
-        <v>0.0349397449458495</v>
+        <v>0.03393512731947033</v>
       </c>
       <c r="T28">
-        <v>0.0349397449458495</v>
+        <v>0.03393512731947034</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H29">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I29">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J29">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N29">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O29">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P29">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q29">
-        <v>300.7334259542791</v>
+        <v>313.5890702416383</v>
       </c>
       <c r="R29">
-        <v>2706.600833588512</v>
+        <v>2822.301632174745</v>
       </c>
       <c r="S29">
-        <v>0.004075666554769166</v>
+        <v>0.00291808861210526</v>
       </c>
       <c r="T29">
-        <v>0.004075666554769167</v>
+        <v>0.00291808861210526</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H30">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I30">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J30">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N30">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O30">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P30">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q30">
-        <v>3742.053479973251</v>
+        <v>4574.804445334513</v>
       </c>
       <c r="R30">
-        <v>33678.48131975926</v>
+        <v>41173.24000801062</v>
       </c>
       <c r="S30">
-        <v>0.0507138911016936</v>
+        <v>0.04257063150910352</v>
       </c>
       <c r="T30">
-        <v>0.05071389110169361</v>
+        <v>0.04257063150910352</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H31">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I31">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J31">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N31">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O31">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P31">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q31">
-        <v>2446.6651530789</v>
+        <v>1250.594255099234</v>
       </c>
       <c r="R31">
-        <v>22019.9863777101</v>
+        <v>11255.3482958931</v>
       </c>
       <c r="S31">
-        <v>0.03315824073589637</v>
+        <v>0.01163734709043687</v>
       </c>
       <c r="T31">
-        <v>0.03315824073589638</v>
+        <v>0.01163734709043687</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H32">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I32">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J32">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N32">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O32">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P32">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q32">
-        <v>397.798120522545</v>
+        <v>2809.843664480612</v>
       </c>
       <c r="R32">
-        <v>3580.183084702905</v>
+        <v>25288.59298032551</v>
       </c>
       <c r="S32">
-        <v>0.005391128339721896</v>
+        <v>0.02614687046585808</v>
       </c>
       <c r="T32">
-        <v>0.005391128339721897</v>
+        <v>0.02614687046585808</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H33">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I33">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J33">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.726477</v>
       </c>
       <c r="O33">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P33">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q33">
-        <v>564.474980616357</v>
+        <v>819.8971358125319</v>
       </c>
       <c r="R33">
-        <v>5080.274825547212</v>
+        <v>7379.074222312786</v>
       </c>
       <c r="S33">
-        <v>0.007650003627637403</v>
+        <v>0.007629514935800174</v>
       </c>
       <c r="T33">
-        <v>0.007650003627637403</v>
+        <v>0.007629514935800174</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H34">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I34">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J34">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N34">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O34">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P34">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q34">
-        <v>4065.030961405758</v>
+        <v>8810.694387364107</v>
       </c>
       <c r="R34">
-        <v>36585.27865265182</v>
+        <v>79296.24948627697</v>
       </c>
       <c r="S34">
-        <v>0.05509101850228449</v>
+        <v>0.08198750975821834</v>
       </c>
       <c r="T34">
-        <v>0.05509101850228449</v>
+        <v>0.08198750975821834</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H35">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I35">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J35">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N35">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O35">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P35">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q35">
-        <v>474.179498424492</v>
+        <v>757.6334314135771</v>
       </c>
       <c r="R35">
-        <v>4267.615485820427</v>
+        <v>6818.700882722193</v>
       </c>
       <c r="S35">
-        <v>0.006426281071196042</v>
+        <v>0.007050122909751324</v>
       </c>
       <c r="T35">
-        <v>0.006426281071196042</v>
+        <v>0.007050122909751323</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H36">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I36">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J36">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N36">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O36">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P36">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q36">
-        <v>5900.258797574122</v>
+        <v>11052.76018483075</v>
       </c>
       <c r="R36">
-        <v>53102.32917816709</v>
+        <v>99474.84166347675</v>
       </c>
       <c r="S36">
-        <v>0.07996280217088787</v>
+        <v>0.1028509495016275</v>
       </c>
       <c r="T36">
-        <v>0.07996280217088789</v>
+        <v>0.1028509495016274</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H37">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I37">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J37">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N37">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O37">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P37">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q37">
-        <v>3857.763570571686</v>
+        <v>3021.444644313789</v>
       </c>
       <c r="R37">
-        <v>34719.87213514517</v>
+        <v>27193.0017988241</v>
       </c>
       <c r="S37">
-        <v>0.05228204317792157</v>
+        <v>0.02811591361230995</v>
       </c>
       <c r="T37">
-        <v>0.05228204317792158</v>
+        <v>0.02811591361230994</v>
       </c>
     </row>
   </sheetData>
